--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1166A3C2-6D3D-40E0-A3F5-7590F35E9D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B466B-E0D7-4FDF-A10C-5551CF3877CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
-  <si>
-    <t>Ngày kế hoạch</t>
-  </si>
-  <si>
-    <t>Loại phiếu</t>
-  </si>
-  <si>
-    <t>Line / Sản phẩm</t>
-  </si>
-  <si>
-    <t>Line / Ngày dự kiến</t>
-  </si>
-  <si>
-    <t>Line / Số lượng</t>
-  </si>
-  <si>
-    <t>Line / Đơn vị</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Line / Mã vụ việc</t>
   </si>
@@ -60,12 +42,6 @@
     <t>Line / Tài sản</t>
   </si>
   <si>
-    <t>Line / Từ kho</t>
-  </si>
-  <si>
-    <t>Line / Lý do xuất</t>
-  </si>
-  <si>
     <t>1521_NPL</t>
   </si>
   <si>
@@ -94,6 +70,150 @@
   </si>
   <si>
     <t>Đơn vị</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày kế hoạch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loại phiếu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Sản phẩm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Ngày dự kiến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Số lượng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Đơn vị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Loại lý do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Từ kho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Lý do xuất</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -103,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +244,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -179,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,11 +315,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,24 +329,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E024EC5C-06AB-479A-BE4E-6B23C2BEC4B7}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,189 +668,196 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
+        <v>1075</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="12">
+        <v>1405000161</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1511020000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
+        <v>1076</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1405000161</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1511020000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11">
+        <v>1077</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1405000161</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1511020000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="F5" s="10">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
+        <v>1078</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="K5" s="12">
+        <v>1405000161</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1075</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="14">
-        <v>1405000161</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="14">
-        <v>1511020000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="12">
-        <v>15</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1076</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1405000161</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="14">
-        <v>1511020000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1077</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1405000161</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="14">
-        <v>1511020000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="13">
-        <v>1078</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="14">
-        <v>1405000161</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="14">
+      <c r="M5" s="12">
         <v>1511020000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B466B-E0D7-4FDF-A10C-5551CF3877CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E074041-D406-45C0-A625-58789FD7C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -27,19 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
-    <t>Line / Mã vụ việc</t>
-  </si>
-  <si>
-    <t>Line / Lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Line / Trung tâm chi phí</t>
-  </si>
-  <si>
     <t>Xuất khác</t>
-  </si>
-  <si>
-    <t>Line / Tài sản</t>
   </si>
   <si>
     <t>1521_NPL</t>
@@ -105,7 +93,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Sản phẩm </t>
+      <t xml:space="preserve">Chi tiết / Sản phẩm </t>
     </r>
     <r>
       <rPr>
@@ -120,8 +108,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Line / Ngày dự kiến </t>
+    <t>Chi tiết / Tài sản</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi tiết / Ngày dự kiến </t>
     </r>
     <r>
       <rPr>
@@ -137,7 +128,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Số lượng</t>
+      <t>Chi tiết / Số lượng</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +144,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Đơn vị </t>
+      <t xml:space="preserve">Chi tiết / Đơn vị </t>
     </r>
     <r>
       <rPr>
@@ -169,7 +160,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Loại lý do</t>
+      <t>Chi tiết / Loại lý do</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +176,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Từ kho </t>
+      <t xml:space="preserve">Chi tiết / Từ kho </t>
     </r>
     <r>
       <rPr>
@@ -201,7 +192,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Lý do xuất</t>
+      <t>Chi tiết / Lý do xuất</t>
     </r>
     <r>
       <rPr>
@@ -214,6 +205,15 @@
       </rPr>
       <t xml:space="preserve"> (*)</t>
     </r>
+  </si>
+  <si>
+    <t>Chi tiết / Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Chi tiết / Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Chi tiết / Trung tâm chi phí</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,88 +668,88 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="10">
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
         <v>1075</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K2" s="12">
         <v>1405000161</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M2" s="12">
         <v>1511020000</v>
@@ -759,30 +759,30 @@
       <c r="A3" s="4"/>
       <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="10">
         <v>15</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11">
         <v>1076</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K3" s="12">
         <v>1405000161</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M3" s="12">
         <v>1511020000</v>
@@ -791,33 +791,33 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="10">
         <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11">
         <v>1077</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K4" s="12">
         <v>1405000161</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M4" s="12">
         <v>1511020000</v>
@@ -827,30 +827,30 @@
       <c r="A5" s="4"/>
       <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="10">
         <v>25</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11">
         <v>1078</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K5" s="12">
         <v>1405000161</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M5" s="12">
         <v>1511020000</v>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E074041-D406-45C0-A625-58789FD7C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71963B-BF7E-4BFF-930A-B146EBC51592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -25,21 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Xuất khác</t>
   </si>
   <si>
     <t>1521_NPL</t>
-  </si>
-  <si>
-    <t>14/07/2023 17:29:25</t>
-  </si>
-  <si>
-    <t>15/07/2023 17:29:25</t>
-  </si>
-  <si>
-    <t>16/07/2023 17:29:25</t>
   </si>
   <si>
     <t>X0103</t>
@@ -220,8 +211,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -307,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,7 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +333,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,16 +659,16 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -680,179 +680,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="14">
+        <v>45121</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="14">
+        <v>45121</v>
+      </c>
+      <c r="F2" s="9">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
+        <v>1075</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
-        <v>1075</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="12">
+      <c r="L2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="11">
         <v>1511020000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="14">
+        <v>45122</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14">
+        <v>45122</v>
+      </c>
+      <c r="F3" s="9">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <v>1076</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
-        <v>1076</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11">
         <v>1511020000</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="14">
+        <v>45123</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="14">
+        <v>45123</v>
+      </c>
+      <c r="F4" s="9">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
+      <c r="G4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
         <v>1077</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="L4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="11">
         <v>1511020000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="14">
+        <v>45124</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="3"/>
+      <c r="E5" s="14">
+        <v>45124</v>
+      </c>
+      <c r="F5" s="9">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>1078</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="L5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="11">
         <v>1511020000</v>
       </c>
     </row>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902B466B-E0D7-4FDF-A10C-5551CF3877CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71963B-BF7E-4BFF-930A-B146EBC51592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -25,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
-  <si>
-    <t>Line / Mã vụ việc</t>
-  </si>
-  <si>
-    <t>Line / Lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Line / Trung tâm chi phí</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Xuất khác</t>
   </si>
   <si>
-    <t>Line / Tài sản</t>
-  </si>
-  <si>
     <t>1521_NPL</t>
-  </si>
-  <si>
-    <t>14/07/2023 17:29:25</t>
-  </si>
-  <si>
-    <t>15/07/2023 17:29:25</t>
-  </si>
-  <si>
-    <t>16/07/2023 17:29:25</t>
   </si>
   <si>
     <t>X0103</t>
@@ -105,7 +84,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Sản phẩm </t>
+      <t xml:space="preserve">Chi tiết / Sản phẩm </t>
     </r>
     <r>
       <rPr>
@@ -120,8 +99,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Line / Ngày dự kiến </t>
+    <t>Chi tiết / Tài sản</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi tiết / Ngày dự kiến </t>
     </r>
     <r>
       <rPr>
@@ -137,7 +119,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Số lượng</t>
+      <t>Chi tiết / Số lượng</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +135,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Đơn vị </t>
+      <t xml:space="preserve">Chi tiết / Đơn vị </t>
     </r>
     <r>
       <rPr>
@@ -169,7 +151,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Loại lý do</t>
+      <t>Chi tiết / Loại lý do</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +167,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Từ kho </t>
+      <t xml:space="preserve">Chi tiết / Từ kho </t>
     </r>
     <r>
       <rPr>
@@ -201,7 +183,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Lý do xuất</t>
+      <t>Chi tiết / Lý do xuất</t>
     </r>
     <r>
       <rPr>
@@ -215,13 +197,23 @@
       <t xml:space="preserve"> (*)</t>
     </r>
   </si>
+  <si>
+    <t>Chi tiết / Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Chi tiết / Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Chi tiết / Trung tâm chi phí</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -307,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,7 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +333,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,200 +659,208 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="14">
+        <v>45121</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14">
+        <v>45121</v>
+      </c>
+      <c r="F2" s="9">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
+        <v>1075</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1405000161</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="10">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
-        <v>1075</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="12">
-        <v>1405000161</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>1511020000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="A3" s="14">
+        <v>45122</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14">
+        <v>45122</v>
+      </c>
+      <c r="F3" s="9">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
         <v>1076</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="J3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11">
         <v>1511020000</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="14">
+        <v>45123</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="14">
+        <v>45123</v>
+      </c>
+      <c r="F4" s="9">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
         <v>1077</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="L4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="11">
         <v>1511020000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="A5" s="14">
+        <v>45124</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="14">
+        <v>45124</v>
+      </c>
+      <c r="F5" s="9">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
+      <c r="G5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>1078</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="L5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="11">
         <v>1511020000</v>
       </c>
     </row>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORLIFE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD71963B-BF7E-4BFF-930A-B146EBC51592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7C2E92-7087-4F0F-9725-C502AED31FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Xuất khác</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>1551_TP002</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
   </si>
   <si>
     <r>
@@ -135,7 +132,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Chi tiết / Đơn vị </t>
+      <t>Chi tiết / Loại lý do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi tiết / Từ kho </t>
     </r>
     <r>
       <rPr>
@@ -151,7 +164,7 @@
   </si>
   <si>
     <r>
-      <t>Chi tiết / Loại lý do</t>
+      <t>Chi tiết / Lý do xuất</t>
     </r>
     <r>
       <rPr>
@@ -166,38 +179,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Chi tiết / Từ kho </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chi tiết / Lý do xuất</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (*)</t>
-    </r>
-  </si>
-  <si>
     <t>Chi tiết / Mã vụ việc</t>
   </si>
   <si>
@@ -213,7 +194,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -333,15 +314,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,72 +636,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E024EC5C-06AB-479A-BE4E-6B23C2BEC4B7}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="23" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>45121</v>
       </c>
@@ -737,27 +714,24 @@
       <c r="F2" s="9">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>1075</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11">
+      <c r="J2" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="11">
+      <c r="L2" s="11">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>45122</v>
       </c>
@@ -772,27 +746,24 @@
       <c r="F3" s="9">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
         <v>1076</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="J3" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="11">
+      <c r="L3" s="11">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>45123</v>
       </c>
@@ -809,27 +780,24 @@
       <c r="F4" s="9">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
         <v>1077</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="J4" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="11">
+      <c r="L4" s="11">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>45124</v>
       </c>
@@ -844,23 +812,20 @@
       <c r="F5" s="9">
         <v>25</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
         <v>1078</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="11">
+      <c r="J5" s="11">
         <v>1405000161</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="11">
+      <c r="L5" s="11">
         <v>1511020000</v>
       </c>
     </row>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycxk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FORLIFE\TAI LIEU DU AN\ERP\Template import_Odoo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aht\Desktop\Forlife\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="745">
   <si>
     <t>Xuất khác</t>
   </si>
@@ -2692,9 +2692,6 @@
   </si>
   <si>
     <t>Địa điểm nguồn</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
   </si>
   <si>
     <t>Chi tiết/mô tả</t>
@@ -3295,30 +3292,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -3343,44 +3340,41 @@
       <c r="H1" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>45121</v>
       </c>
@@ -3393,38 +3387,37 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="13">
+      <c r="L2" s="13">
         <v>45121</v>
       </c>
-      <c r="N2" s="8">
+      <c r="M2" s="8">
         <v>10</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="9">
+      <c r="O2" s="9">
         <v>1075</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="10">
+      <c r="Q2" s="10">
         <v>1405000161</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="10">
+      <c r="S2" s="10">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3433,38 +3426,37 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="13">
+      <c r="L3" s="13">
         <v>45121</v>
       </c>
-      <c r="N3" s="8">
+      <c r="M3" s="8">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="9">
+      <c r="O3" s="9">
         <v>1076</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="10">
+      <c r="Q3" s="10">
         <v>1405000161</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="10">
+      <c r="S3" s="10">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>45123</v>
       </c>
@@ -3477,38 +3469,37 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="13">
+      <c r="L4" s="13">
         <v>45123</v>
       </c>
-      <c r="N4" s="8">
+      <c r="M4" s="8">
         <v>20</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="9">
+      <c r="O4" s="9">
         <v>1077</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="10">
+      <c r="Q4" s="10">
         <v>1405000161</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="10">
+      <c r="S4" s="10">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3517,34 +3508,33 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="13">
+      <c r="L5" s="13">
         <v>45123</v>
       </c>
-      <c r="N5" s="8">
+      <c r="M5" s="8">
         <v>25</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="9">
+      <c r="O5" s="9">
         <v>1078</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="Q5" s="10">
         <v>1405000161</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="10">
+      <c r="S5" s="10">
         <v>1511020000</v>
       </c>
     </row>
